--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9934334754943848</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986735582351685</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987004995346069</v>
+        <v>0.9993407130241394</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9938194155693054</v>
+        <v>0.9994819760322571</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987189769744873</v>
+        <v>0.9999785423278809</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9937005043029785</v>
+        <v>0.9999785423278809</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9859864711761475</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9987905621528625</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9925244450569153</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9581767916679382</v>
+        <v>0.6660234928131104</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9987388253211975</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9671268463134766</v>
+        <v>0.9998369216918945</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9987081289291382</v>
+        <v>0.9980881810188293</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8176864981651306</v>
+        <v>0.9999728202819824</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9987180233001709</v>
+        <v>0.9999779462814331</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9988040924072266</v>
+        <v>0.9999763965606689</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9987567663192749</v>
+        <v>0.9994133710861206</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986816048622131</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9829802513122559</v>
+        <v>0.9999758005142212</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9914370179176331</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9731674194335938</v>
+        <v>0.9999755620956421</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9932422041893005</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9930920600891113</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9985432624816895</v>
+        <v>0.9993067979812622</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9937005043029785</v>
+        <v>0.9990038275718689</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9984509944915771</v>
+        <v>0.9999775886535645</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9987767338752747</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9987297654151917</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9984092116355896</v>
+        <v>0.9999774694442749</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9987560510635376</v>
+        <v>0.9999749660491943</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9987276196479797</v>
+        <v>0.9999761581420898</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9987347722053528</v>
+        <v>0.9997933506965637</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9672952890396118</v>
+        <v>0.9998750686645508</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4908783733844757</v>
+        <v>0.9998627901077271</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9923561811447144</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9985092282295227</v>
+        <v>0.9998725652694702</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9987356066703796</v>
+        <v>0.9999755620956421</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9865280985832214</v>
+        <v>0.9867074489593506</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9969707727432251</v>
+        <v>0.9997377991676331</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9888628721237183</v>
+        <v>0.9999775886535645</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9987297654151917</v>
+        <v>0.9958362579345703</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9931847453117371</v>
+        <v>0.9997649788856506</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9899085760116577</v>
+        <v>0.9998760223388672</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9987305998802185</v>
+        <v>0.9997935891151428</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9931164979934692</v>
+        <v>0.9994897842407227</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9987938404083252</v>
+        <v>0.9933816194534302</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9919373393058777</v>
+        <v>0.9997963309288025</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9986891150474548</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.992998480796814</v>
+        <v>0.9997976422309875</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9987830519676208</v>
+        <v>0.8726006746292114</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.942234992980957</v>
+        <v>0.9999765157699585</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9810876846313477</v>
+        <v>0.9997976422309875</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.989501416683197</v>
+        <v>0.9998050332069397</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9987733960151672</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9988223910331726</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9987092018127441</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.998259961605072</v>
+        <v>0.9998750686645508</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9987873435020447</v>
+        <v>0.999968409538269</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9976400136947632</v>
+        <v>0.9999681711196899</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.999976634979248</v>
       </c>
     </row>
     <row r="62">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7345865368843079</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9987449645996094</v>
+        <v>0.9998750686645508</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9884430766105652</v>
+        <v>0.9984513521194458</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7063685655593872</v>
+        <v>0.9998745918273926</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9932777285575867</v>
+        <v>0.9998745918273926</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9888416528701782</v>
+        <v>0.9998718500137329</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9987198114395142</v>
+        <v>0.9998745918273926</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.984758734703064</v>
+        <v>0.999826967716217</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9987967014312744</v>
+        <v>0.9999772310256958</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9986197948455811</v>
+        <v>0.9998621940612793</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9927563071250916</v>
+        <v>0.9999772310256958</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9932422041893005</v>
+        <v>0.9998723268508911</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9974876642227173</v>
+        <v>0.9999555349349976</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9932777285575867</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9998723268508911</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999762773513794</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9987373948097229</v>
+        <v>0.9998723268508911</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9897279143333435</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9857625961303711</v>
+        <v>0.9998176693916321</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9936683773994446</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9883269667625427</v>
+        <v>0.9998176693916321</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.99880051612854</v>
+        <v>0.9999760389328003</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8991498947143555</v>
+        <v>0.9999760389328003</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9932777285575867</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="86">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9934192299842834</v>
+        <v>0.9998685121536255</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9986891150474548</v>
+        <v>0.9998501539230347</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9971822500228882</v>
+        <v>0.9998606443405151</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.998730480670929</v>
+        <v>0.9999762773513794</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987770915031433</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.99873286485672</v>
+        <v>0.9999785423278809</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9897279143333435</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.998625636100769</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9882523417472839</v>
+        <v>0.9999783039093018</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986935257911682</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9987911581993103</v>
+        <v>0.9999738931655884</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9939206838607788</v>
+        <v>0.9995762705802917</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9967333078384399</v>
+        <v>0.998063862323761</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9695194363594055</v>
+        <v>0.9999767541885376</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9980785846710205</v>
+        <v>0.999977707862854</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9987871050834656</v>
+        <v>0.535801887512207</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999288320541382</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.998768150806427</v>
+        <v>0.9999779462814331</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9982250332832336</v>
+        <v>0.9998404979705811</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9737632274627686</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9901772141456604</v>
+        <v>0.9997381567955017</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9987841248512268</v>
+        <v>0.9998502731323242</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9777951240539551</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9985092282295227</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9882625937461853</v>
+        <v>0.9997938275337219</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9932148456573486</v>
+        <v>0.9997949004173279</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9987667798995972</v>
+        <v>0.999873161315918</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9987745881080627</v>
+        <v>0.9999767541885376</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9925244450569153</v>
+        <v>0.9998446702957153</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8557868003845215</v>
+        <v>0.9981077909469604</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9931990504264832</v>
+        <v>0.9999728202819824</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9988141059875488</v>
+        <v>0.6600703001022339</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9987977743148804</v>
+        <v>0.9534513354301453</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9987508058547974</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9745259284973145</v>
+        <v>0.9998202919960022</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9831116795539856</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9987937211990356</v>
+        <v>0.9998202919960022</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9982776641845703</v>
+        <v>0.9999786615371704</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.998785674571991</v>
+        <v>0.9998202919960022</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9987385869026184</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8489658832550049</v>
+        <v>0.9999662637710571</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9890198111534119</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9987109899520874</v>
+        <v>0.9998892545700073</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9987480640411377</v>
+        <v>0.9999388456344604</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9987629652023315</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9975470900535583</v>
+        <v>0.5061048269271851</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9986037611961365</v>
+        <v>0.9999768733978271</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9987297654151917</v>
+        <v>0.9999762773513794</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986401200294495</v>
+        <v>0.9999771118164062</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9987986087799072</v>
+        <v>0.9993317723274231</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9987567663192749</v>
+        <v>0.9999771118164062</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9882897138595581</v>
+        <v>0.9999639987945557</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9982674121856689</v>
+        <v>0.9999772310256958</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5647933483123779</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9987590312957764</v>
+        <v>0.6522670388221741</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9988018274307251</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9987560510635376</v>
+        <v>0.9997918009757996</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.993528425693512</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="145">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9516261219978333</v>
+        <v>0.9997918009757996</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4976048171520233</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9985576272010803</v>
+        <v>0.999826967716217</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9802859425544739</v>
+        <v>0.999977707862854</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9987637996673584</v>
+        <v>0.9998490810394287</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9987610578536987</v>
+        <v>0.999735414981842</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9987202882766724</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>SurroundingEnvironment</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>SurroundingEnvironment</t>
-        </is>
-      </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9936683773994446</v>
+        <v>0.9973996877670288</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986742734909058</v>
+        <v>0.9999783039093018</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9998341798782349</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9843116402626038</v>
+        <v>0.9999783039093018</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9972735047340393</v>
+        <v>0.9998371601104736</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9987194538116455</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9986139535903931</v>
+        <v>0.9998384714126587</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9987945556640625</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.998761773109436</v>
+        <v>0.9996010661125183</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9987689852714539</v>
+        <v>0.9999783039093018</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6453242897987366</v>
+        <v>0.9993444085121155</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999779462814331</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9984754920005798</v>
+        <v>0.9998548030853271</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9932422041893005</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9883269667625427</v>
+        <v>0.9999475479125977</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.998699426651001</v>
+        <v>0.9997755885124207</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9936683773994446</v>
+        <v>0.9984849095344543</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9986286163330078</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9876577854156494</v>
+        <v>0.9997755885124207</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9987940788269043</v>
+        <v>0.999393105506897</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9923561811447144</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9527900218963623</v>
+        <v>0.9999775886535645</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9525171518325806</v>
+        <v>0.9999768733978271</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9987983703613281</v>
+        <v>0.9999775886535645</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9986919760704041</v>
+        <v>0.9999775886535645</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7383300065994263</v>
+        <v>0.9999768733978271</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9933844208717346</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9887075424194336</v>
+        <v>0.9999774694442749</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9986792206764221</v>
+        <v>0.9999767541885376</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9987427592277527</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9881390929222107</v>
+        <v>0.999977707862854</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9750814437866211</v>
+        <v>0.9998045563697815</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9819688200950623</v>
+        <v>0.9999781847000122</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9983052015304565</v>
+        <v>0.9999761581420898</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9934671521186829</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.99873286485672</v>
+        <v>0.9999785423278809</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9890934228897095</v>
+        <v>0.9999755620956421</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9987276196479797</v>
+        <v>0.9999763965606689</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9889025092124939</v>
+        <v>0.9994838237762451</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9987806677818298</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9976722598075867</v>
+        <v>0.9999768733978271</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9982408285140991</v>
+        <v>0.9998444318771362</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9981291890144348</v>
+        <v>0.9997568726539612</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9987607002258301</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9933466911315918</v>
+        <v>0.9999725818634033</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9433987140655518</v>
+        <v>0.999977707862854</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9987032413482666</v>
+        <v>0.5369530916213989</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9985771179199219</v>
+        <v>0.9999779462814331</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9936625957489014</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9985318183898926</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9988064765930176</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9987595081329346</v>
+        <v>0.9999568462371826</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9987401366233826</v>
+        <v>0.9999788999557495</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9988048076629639</v>
+        <v>0.9995725750923157</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9987990856170654</v>
+        <v>0.9999779462814331</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9987524747848511</v>
+        <v>0.9991071820259094</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9463180303573608</v>
+        <v>0.99997878074646</v>
       </c>
     </row>
   </sheetData>
